--- a/assets_yearly_return.xlsx
+++ b/assets_yearly_return.xlsx
@@ -18,28 +18,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>BNDX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BND</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VXUS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VTI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TW50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -49,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,14 +66,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Noto Sans CJK TC Regular"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
@@ -82,14 +74,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Noto Sans CJK TC Regular"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Noto Sans CJK TC Regular"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Noto Sans CJK TC Regular"/>
       <family val="2"/>
       <charset val="136"/>
@@ -104,17 +112,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -127,16 +144,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,39 +449,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="19">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="19">
+    </row>
+    <row r="2" spans="1:6" ht="19">
       <c r="A2" s="2">
         <v>2007</v>
       </c>
@@ -483,12 +499,8 @@
       <c r="F2" s="3">
         <v>11.5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="19">
+    </row>
+    <row r="3" spans="1:6" ht="19">
       <c r="A3" s="2">
         <v>2008</v>
       </c>
@@ -507,12 +519,8 @@
       <c r="F3" s="3">
         <v>-42.9</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="19">
+    </row>
+    <row r="4" spans="1:6" ht="19">
       <c r="A4" s="2">
         <v>2009</v>
       </c>
@@ -531,12 +539,8 @@
       <c r="F4" s="3">
         <v>74</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="19">
+    </row>
+    <row r="5" spans="1:6" ht="19">
       <c r="A5" s="2">
         <v>2010</v>
       </c>
@@ -555,12 +559,8 @@
       <c r="F5" s="3">
         <v>13.1</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="19">
+    </row>
+    <row r="6" spans="1:6" ht="19">
       <c r="A6" s="2">
         <v>2011</v>
       </c>
@@ -579,12 +579,8 @@
       <c r="F6" s="3">
         <v>-15.5</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="19">
+    </row>
+    <row r="7" spans="1:6" ht="19">
       <c r="A7" s="2">
         <v>2012</v>
       </c>
@@ -603,12 +599,8 @@
       <c r="F7" s="3">
         <v>12.7</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="19">
+    </row>
+    <row r="8" spans="1:6" ht="19">
       <c r="A8" s="2">
         <v>2013</v>
       </c>
@@ -627,12 +619,8 @@
       <c r="F8" s="3">
         <v>11.9</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="19">
+    </row>
+    <row r="9" spans="1:6" ht="19">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
@@ -651,12 +639,8 @@
       <c r="F9" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="19">
+    </row>
+    <row r="10" spans="1:6" ht="19">
       <c r="A10" s="2">
         <v>2015</v>
       </c>
@@ -675,12 +659,8 @@
       <c r="F10" s="3">
         <v>-5.7</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="19">
+    </row>
+    <row r="11" spans="1:6" ht="19">
       <c r="A11" s="2">
         <v>2016</v>
       </c>
@@ -699,12 +679,8 @@
       <c r="F11" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="19">
+    </row>
+    <row r="12" spans="1:6" ht="19">
       <c r="A12" s="2">
         <v>2017</v>
       </c>
@@ -723,12 +699,8 @@
       <c r="F12" s="3">
         <v>18.8</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="19">
+    </row>
+    <row r="13" spans="1:6" ht="19">
       <c r="A13" s="2">
         <v>2018</v>
       </c>
@@ -747,12 +719,8 @@
       <c r="F13" s="3">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="19">
+    </row>
+    <row r="14" spans="1:6" ht="19">
       <c r="A14" s="2">
         <v>2019</v>
       </c>
@@ -771,94 +739,26 @@
       <c r="F14" s="3">
         <v>33.700000000000003</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="19">
+      <c r="A15" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>31.6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
